--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2953.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2953.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.178607512402582</v>
+        <v>0.584138035774231</v>
       </c>
       <c r="B1">
-        <v>2.885290075257857</v>
+        <v>0.4565820395946503</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.70927882194519</v>
       </c>
       <c r="D1">
-        <v>2.122793995394886</v>
+        <v>3.600527286529541</v>
       </c>
       <c r="E1">
-        <v>1.224200704702566</v>
+        <v>0.9671239256858826</v>
       </c>
     </row>
   </sheetData>
